--- a/results.xlsx
+++ b/results.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c)i)" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c)ii)" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c)iii)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c)iv)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="d)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,16 +479,16 @@
         <v>1000</v>
       </c>
       <c r="D2" t="n">
-        <v>9246</v>
+        <v>9147</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00146416699863039</v>
+        <v>0.001619749993551522</v>
       </c>
       <c r="F2" t="n">
-        <v>8703</v>
+        <v>8688</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001717082996037789</v>
+        <v>0.001863375000539236</v>
       </c>
     </row>
     <row r="3">
@@ -502,16 +502,16 @@
         <v>1100</v>
       </c>
       <c r="D3" t="n">
-        <v>10234</v>
+        <v>10272</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001423708003130741</v>
+        <v>0.001483707994339056</v>
       </c>
       <c r="F3" t="n">
-        <v>9758</v>
+        <v>9669</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001818125005229376</v>
+        <v>0.001835791990743019</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         <v>1200</v>
       </c>
       <c r="D4" t="n">
-        <v>11520</v>
+        <v>11452</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001634542000829242</v>
+        <v>0.001631457998882979</v>
       </c>
       <c r="F4" t="n">
-        <v>10798</v>
+        <v>10756</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001902500007417984</v>
+        <v>0.001985583003261127</v>
       </c>
     </row>
     <row r="5">
@@ -548,16 +548,16 @@
         <v>1300</v>
       </c>
       <c r="D5" t="n">
-        <v>12588</v>
+        <v>12640</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001783625004463829</v>
+        <v>0.001884291996248066</v>
       </c>
       <c r="F5" t="n">
-        <v>11823</v>
+        <v>11844</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002079624988255091</v>
+        <v>0.002193374995840713</v>
       </c>
     </row>
     <row r="6">
@@ -571,16 +571,16 @@
         <v>1400</v>
       </c>
       <c r="D6" t="n">
-        <v>13175</v>
+        <v>13152</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001911208004457876</v>
+        <v>0.002074165997328237</v>
       </c>
       <c r="F6" t="n">
-        <v>12909</v>
+        <v>12886</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002300791995367035</v>
+        <v>0.002335166995180771</v>
       </c>
     </row>
     <row r="7">
@@ -594,16 +594,16 @@
         <v>1500</v>
       </c>
       <c r="D7" t="n">
-        <v>14266</v>
+        <v>14217</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002114791990607046</v>
+        <v>0.00211479100107681</v>
       </c>
       <c r="F7" t="n">
-        <v>13973</v>
+        <v>13942</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002452707994962111</v>
+        <v>0.002690374996745959</v>
       </c>
     </row>
     <row r="8">
@@ -617,16 +617,16 @@
         <v>1600</v>
       </c>
       <c r="D8" t="n">
-        <v>15370</v>
+        <v>15395</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002174375011236407</v>
+        <v>0.002294042002176866</v>
       </c>
       <c r="F8" t="n">
-        <v>15013</v>
+        <v>15035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002608208000310697</v>
+        <v>0.002782790994388051</v>
       </c>
     </row>
     <row r="9">
@@ -640,16 +640,16 @@
         <v>1700</v>
       </c>
       <c r="D9" t="n">
-        <v>16549</v>
+        <v>16621</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00229987500642892</v>
+        <v>0.002408917003776878</v>
       </c>
       <c r="F9" t="n">
-        <v>16076</v>
+        <v>16113</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002902166990679689</v>
+        <v>0.002990042004967108</v>
       </c>
     </row>
     <row r="10">
@@ -663,16 +663,16 @@
         <v>1800</v>
       </c>
       <c r="D10" t="n">
-        <v>17757</v>
+        <v>17860</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002513582992833108</v>
+        <v>0.002574916987214237</v>
       </c>
       <c r="F10" t="n">
-        <v>17242</v>
+        <v>17231</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003096208005445078</v>
+        <v>0.003184707995387726</v>
       </c>
     </row>
     <row r="11">
@@ -686,16 +686,16 @@
         <v>1900</v>
       </c>
       <c r="D11" t="n">
-        <v>19049</v>
+        <v>19061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002627084002597257</v>
+        <v>0.00275091698858887</v>
       </c>
       <c r="F11" t="n">
-        <v>18314</v>
+        <v>18271</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003184417000738904</v>
+        <v>0.003178250000928529</v>
       </c>
     </row>
     <row r="12">
@@ -709,16 +709,16 @@
         <v>2000</v>
       </c>
       <c r="D12" t="n">
-        <v>20270</v>
+        <v>20222</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00277295800333377</v>
+        <v>0.002778666996164247</v>
       </c>
       <c r="F12" t="n">
-        <v>19385</v>
+        <v>19363</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003339000002597459</v>
+        <v>0.00353370800439734</v>
       </c>
     </row>
     <row r="13">
@@ -732,16 +732,16 @@
         <v>2100</v>
       </c>
       <c r="D13" t="n">
-        <v>21597</v>
+        <v>21595</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002945625004940666</v>
+        <v>0.003107416996499524</v>
       </c>
       <c r="F13" t="n">
-        <v>20534</v>
+        <v>20558</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00355841699638404</v>
+        <v>0.003669625002657995</v>
       </c>
     </row>
     <row r="14">
@@ -755,16 +755,16 @@
         <v>2200</v>
       </c>
       <c r="D14" t="n">
-        <v>22816</v>
+        <v>22710</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003103709008428268</v>
+        <v>0.003230209011235274</v>
       </c>
       <c r="F14" t="n">
-        <v>21680</v>
+        <v>21671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003746792004676536</v>
+        <v>0.00378120900131762</v>
       </c>
     </row>
     <row r="15">
@@ -778,16 +778,16 @@
         <v>2300</v>
       </c>
       <c r="D15" t="n">
-        <v>24000</v>
+        <v>24186</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00330641699838452</v>
+        <v>0.003410457997233607</v>
       </c>
       <c r="F15" t="n">
-        <v>22769</v>
+        <v>22813</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004077375007909723</v>
+        <v>0.0040690409950912</v>
       </c>
     </row>
     <row r="16">
@@ -801,16 +801,16 @@
         <v>2400</v>
       </c>
       <c r="D16" t="n">
-        <v>25349</v>
+        <v>25487</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003493542011710815</v>
+        <v>0.003647042001830414</v>
       </c>
       <c r="F16" t="n">
-        <v>23942</v>
+        <v>23933</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004207582998787984</v>
+        <v>0.004293457997846417</v>
       </c>
     </row>
     <row r="17">
@@ -824,16 +824,16 @@
         <v>2500</v>
       </c>
       <c r="D17" t="n">
-        <v>26820</v>
+        <v>26698</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003693749997182749</v>
+        <v>0.003706582996528596</v>
       </c>
       <c r="F17" t="n">
-        <v>25136</v>
+        <v>25115</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004424415994435549</v>
+        <v>0.004417957999976352</v>
       </c>
     </row>
     <row r="18">
@@ -847,16 +847,16 @@
         <v>2600</v>
       </c>
       <c r="D18" t="n">
-        <v>27817</v>
+        <v>27837</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003896041002008133</v>
+        <v>0.003862583005684428</v>
       </c>
       <c r="F18" t="n">
-        <v>26246</v>
+        <v>26308</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004606250004144385</v>
+        <v>0.004678790995967574</v>
       </c>
     </row>
     <row r="19">
@@ -870,16 +870,16 @@
         <v>2700</v>
       </c>
       <c r="D19" t="n">
-        <v>28471</v>
+        <v>28450</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004019416999653913</v>
+        <v>0.004149750006035902</v>
       </c>
       <c r="F19" t="n">
-        <v>27423</v>
+        <v>27381</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004821709007956088</v>
+        <v>0.005157375009730458</v>
       </c>
     </row>
     <row r="20">
@@ -893,16 +893,16 @@
         <v>2800</v>
       </c>
       <c r="D20" t="n">
-        <v>29081</v>
+        <v>29168</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004227707991958596</v>
+        <v>0.004355457989731804</v>
       </c>
       <c r="F20" t="n">
-        <v>28569</v>
+        <v>28623</v>
       </c>
       <c r="G20" t="n">
-        <v>0.005089458005386405</v>
+        <v>0.005261332989903167</v>
       </c>
     </row>
     <row r="21">
@@ -916,16 +916,16 @@
         <v>2900</v>
       </c>
       <c r="D21" t="n">
-        <v>30311</v>
+        <v>30183</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004425749997608364</v>
+        <v>0.004649166992749088</v>
       </c>
       <c r="F21" t="n">
-        <v>29797</v>
+        <v>29732</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005202416999964043</v>
+        <v>0.005394208987127058</v>
       </c>
     </row>
     <row r="22">
@@ -939,16 +939,16 @@
         <v>3000</v>
       </c>
       <c r="D22" t="n">
-        <v>31509</v>
+        <v>31537</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004609791008988395</v>
+        <v>0.00478233300964348</v>
       </c>
       <c r="F22" t="n">
-        <v>30959</v>
+        <v>30943</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005355832996428944</v>
+        <v>0.005606999999145046</v>
       </c>
     </row>
     <row r="23">
@@ -962,16 +962,16 @@
         <v>3100</v>
       </c>
       <c r="D23" t="n">
-        <v>32785</v>
+        <v>32729</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004734290996566415</v>
+        <v>0.004666166001698002</v>
       </c>
       <c r="F23" t="n">
-        <v>32121</v>
+        <v>32098</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005600167001830414</v>
+        <v>0.005560208010138012</v>
       </c>
     </row>
     <row r="24">
@@ -985,16 +985,16 @@
         <v>3200</v>
       </c>
       <c r="D24" t="n">
-        <v>34017</v>
+        <v>34039</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004895207996014506</v>
+        <v>0.004883667003014125</v>
       </c>
       <c r="F24" t="n">
-        <v>33263</v>
+        <v>33313</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005870249995496124</v>
+        <v>0.005799334001494572</v>
       </c>
     </row>
     <row r="25">
@@ -1008,16 +1008,16 @@
         <v>3300</v>
       </c>
       <c r="D25" t="n">
-        <v>35316</v>
+        <v>35346</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005033416004152969</v>
+        <v>0.004966624997905456</v>
       </c>
       <c r="F25" t="n">
-        <v>34477</v>
+        <v>34485</v>
       </c>
       <c r="G25" t="n">
-        <v>0.005999707995215431</v>
+        <v>0.005972499988274649</v>
       </c>
     </row>
     <row r="26">
@@ -1031,16 +1031,16 @@
         <v>3400</v>
       </c>
       <c r="D26" t="n">
-        <v>36664</v>
+        <v>36574</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00535879100789316</v>
+        <v>0.005180416002986021</v>
       </c>
       <c r="F26" t="n">
-        <v>35694</v>
+        <v>35641</v>
       </c>
       <c r="G26" t="n">
-        <v>0.006187457998748869</v>
+        <v>0.006215375004103407</v>
       </c>
     </row>
     <row r="27">
@@ -1054,16 +1054,16 @@
         <v>3500</v>
       </c>
       <c r="D27" t="n">
-        <v>37850</v>
+        <v>37809</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005329500010702759</v>
+        <v>0.005315125003107823</v>
       </c>
       <c r="F27" t="n">
-        <v>36802</v>
+        <v>36867</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00642350000271108</v>
+        <v>0.00638983299722895</v>
       </c>
     </row>
     <row r="28">
@@ -1077,16 +1077,16 @@
         <v>3600</v>
       </c>
       <c r="D28" t="n">
-        <v>39076</v>
+        <v>39159</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005454291007481515</v>
+        <v>0.005582667014095932</v>
       </c>
       <c r="F28" t="n">
-        <v>38049</v>
+        <v>37986</v>
       </c>
       <c r="G28" t="n">
-        <v>0.006539166992297396</v>
+        <v>0.006541499999002554</v>
       </c>
     </row>
     <row r="29">
@@ -1100,16 +1100,16 @@
         <v>3700</v>
       </c>
       <c r="D29" t="n">
-        <v>40418</v>
+        <v>40439</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005562042002566159</v>
+        <v>0.005600999997113831</v>
       </c>
       <c r="F29" t="n">
-        <v>39203</v>
+        <v>39237</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006868541007861495</v>
+        <v>0.006687583998427726</v>
       </c>
     </row>
     <row r="30">
@@ -1123,16 +1123,16 @@
         <v>3800</v>
       </c>
       <c r="D30" t="n">
-        <v>41840</v>
+        <v>41781</v>
       </c>
       <c r="E30" t="n">
-        <v>0.006085540997446515</v>
+        <v>0.005820749996928498</v>
       </c>
       <c r="F30" t="n">
-        <v>40416</v>
+        <v>40476</v>
       </c>
       <c r="G30" t="n">
-        <v>0.007324916994548403</v>
+        <v>0.006947458008653484</v>
       </c>
     </row>
     <row r="31">
@@ -1146,16 +1146,16 @@
         <v>3900</v>
       </c>
       <c r="D31" t="n">
-        <v>43076</v>
+        <v>43161</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00629770799423568</v>
+        <v>0.00605058298970107</v>
       </c>
       <c r="F31" t="n">
-        <v>41624</v>
+        <v>41603</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007310000000870787</v>
+        <v>0.007143874987377785</v>
       </c>
     </row>
     <row r="32">
@@ -1169,16 +1169,16 @@
         <v>4000</v>
       </c>
       <c r="D32" t="n">
-        <v>44469</v>
+        <v>44459</v>
       </c>
       <c r="E32" t="n">
-        <v>0.006068082991987467</v>
+        <v>0.006105332999140956</v>
       </c>
       <c r="F32" t="n">
-        <v>42797</v>
+        <v>42800</v>
       </c>
       <c r="G32" t="n">
-        <v>0.007247541012475267</v>
+        <v>0.007278125005541369</v>
       </c>
     </row>
     <row r="33">
@@ -1192,16 +1192,16 @@
         <v>4100</v>
       </c>
       <c r="D33" t="n">
-        <v>45923</v>
+        <v>45822</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006353791002766229</v>
+        <v>0.006406792002962902</v>
       </c>
       <c r="F33" t="n">
-        <v>44075</v>
+        <v>44052</v>
       </c>
       <c r="G33" t="n">
-        <v>0.007438791988533922</v>
+        <v>0.007624250007211231</v>
       </c>
     </row>
     <row r="34">
@@ -1215,16 +1215,16 @@
         <v>4200</v>
       </c>
       <c r="D34" t="n">
-        <v>47347</v>
+        <v>47244</v>
       </c>
       <c r="E34" t="n">
-        <v>0.006460541000706144</v>
+        <v>0.006987207991187461</v>
       </c>
       <c r="F34" t="n">
-        <v>45274</v>
+        <v>45231</v>
       </c>
       <c r="G34" t="n">
-        <v>0.007773457997245714</v>
+        <v>0.00790333301119972</v>
       </c>
     </row>
     <row r="35">
@@ -1238,16 +1238,16 @@
         <v>4300</v>
       </c>
       <c r="D35" t="n">
-        <v>48493</v>
+        <v>48549</v>
       </c>
       <c r="E35" t="n">
-        <v>0.006610040989471599</v>
+        <v>0.006809000013163313</v>
       </c>
       <c r="F35" t="n">
-        <v>46504</v>
+        <v>46537</v>
       </c>
       <c r="G35" t="n">
-        <v>0.007914542002254166</v>
+        <v>0.007977957997354679</v>
       </c>
     </row>
     <row r="36">
@@ -1261,16 +1261,16 @@
         <v>4400</v>
       </c>
       <c r="D36" t="n">
-        <v>50189</v>
+        <v>50105</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006811957995523699</v>
+        <v>0.006869874996482395</v>
       </c>
       <c r="F36" t="n">
-        <v>47759</v>
+        <v>47763</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00811325000540819</v>
+        <v>0.00825083399831783</v>
       </c>
     </row>
     <row r="37">
@@ -1284,16 +1284,16 @@
         <v>4500</v>
       </c>
       <c r="D37" t="n">
-        <v>51334</v>
+        <v>51418</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00694725000357721</v>
+        <v>0.007314208996831439</v>
       </c>
       <c r="F37" t="n">
-        <v>49002</v>
+        <v>48993</v>
       </c>
       <c r="G37" t="n">
-        <v>0.008335874998010695</v>
+        <v>0.008673290998558514</v>
       </c>
     </row>
     <row r="38">
@@ -1307,16 +1307,16 @@
         <v>4600</v>
       </c>
       <c r="D38" t="n">
-        <v>52780</v>
+        <v>52796</v>
       </c>
       <c r="E38" t="n">
-        <v>0.007115332991816103</v>
+        <v>0.007462499997927807</v>
       </c>
       <c r="F38" t="n">
-        <v>50224</v>
+        <v>50273</v>
       </c>
       <c r="G38" t="n">
-        <v>0.008498916999087669</v>
+        <v>0.008924499998101965</v>
       </c>
     </row>
     <row r="39">
@@ -1330,16 +1330,16 @@
         <v>4700</v>
       </c>
       <c r="D39" t="n">
-        <v>54222</v>
+        <v>54290</v>
       </c>
       <c r="E39" t="n">
-        <v>0.007290041990927421</v>
+        <v>0.007430249999742955</v>
       </c>
       <c r="F39" t="n">
-        <v>51500</v>
+        <v>51479</v>
       </c>
       <c r="G39" t="n">
-        <v>0.008734791001188569</v>
+        <v>0.008793917004368268</v>
       </c>
     </row>
     <row r="40">
@@ -1353,16 +1353,16 @@
         <v>4800</v>
       </c>
       <c r="D40" t="n">
-        <v>55701</v>
+        <v>55768</v>
       </c>
       <c r="E40" t="n">
-        <v>0.007505874993512407</v>
+        <v>0.007888249994721264</v>
       </c>
       <c r="F40" t="n">
-        <v>52763</v>
+        <v>52701</v>
       </c>
       <c r="G40" t="n">
-        <v>0.008946750007453375</v>
+        <v>0.009093208995182067</v>
       </c>
     </row>
     <row r="41">
@@ -1376,16 +1376,16 @@
         <v>4900</v>
       </c>
       <c r="D41" t="n">
-        <v>57075</v>
+        <v>56978</v>
       </c>
       <c r="E41" t="n">
-        <v>0.007665917000849731</v>
+        <v>0.007820832994184457</v>
       </c>
       <c r="F41" t="n">
-        <v>54059</v>
+        <v>54048</v>
       </c>
       <c r="G41" t="n">
-        <v>0.009172832986223511</v>
+        <v>0.009350250009447336</v>
       </c>
     </row>
     <row r="42">
@@ -1399,16 +1399,16 @@
         <v>5000</v>
       </c>
       <c r="D42" t="n">
-        <v>58647</v>
+        <v>58434</v>
       </c>
       <c r="E42" t="n">
-        <v>0.007845667001674883</v>
+        <v>0.00801641600264702</v>
       </c>
       <c r="F42" t="n">
-        <v>55218</v>
+        <v>55191</v>
       </c>
       <c r="G42" t="n">
-        <v>0.009315000002970919</v>
+        <v>0.009472249992541037</v>
       </c>
     </row>
     <row r="43">
@@ -1422,16 +1422,16 @@
         <v>5100</v>
       </c>
       <c r="D43" t="n">
-        <v>59904</v>
+        <v>60004</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00801212499209214</v>
+        <v>0.008219499999540858</v>
       </c>
       <c r="F43" t="n">
-        <v>56485</v>
+        <v>56496</v>
       </c>
       <c r="G43" t="n">
-        <v>0.009551250012009405</v>
+        <v>0.009814375007408671</v>
       </c>
     </row>
     <row r="44">
@@ -1445,16 +1445,16 @@
         <v>5200</v>
       </c>
       <c r="D44" t="n">
-        <v>60716</v>
+        <v>60641</v>
       </c>
       <c r="E44" t="n">
-        <v>0.00819812499685213</v>
+        <v>0.008874166000168771</v>
       </c>
       <c r="F44" t="n">
-        <v>57665</v>
+        <v>57657</v>
       </c>
       <c r="G44" t="n">
-        <v>0.009739208006067201</v>
+        <v>0.01017837499966845</v>
       </c>
     </row>
     <row r="45">
@@ -1468,16 +1468,16 @@
         <v>5300</v>
       </c>
       <c r="D45" t="n">
-        <v>61548</v>
+        <v>61580</v>
       </c>
       <c r="E45" t="n">
-        <v>0.008434500006842427</v>
+        <v>0.0105239169934066</v>
       </c>
       <c r="F45" t="n">
-        <v>59003</v>
+        <v>59060</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01001670799450949</v>
+        <v>0.01136108399077784</v>
       </c>
     </row>
     <row r="46">
@@ -1491,16 +1491,16 @@
         <v>5400</v>
       </c>
       <c r="D46" t="n">
-        <v>62322</v>
+        <v>62340</v>
       </c>
       <c r="E46" t="n">
-        <v>0.008622875000583008</v>
+        <v>0.009252208008547314</v>
       </c>
       <c r="F46" t="n">
-        <v>60239</v>
+        <v>60166</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01025658300204668</v>
+        <v>0.01098674999957439</v>
       </c>
     </row>
     <row r="47">
@@ -1514,16 +1514,16 @@
         <v>5500</v>
       </c>
       <c r="D47" t="n">
-        <v>63243</v>
+        <v>63093</v>
       </c>
       <c r="E47" t="n">
-        <v>0.009044874997925945</v>
+        <v>0.01066633300797548</v>
       </c>
       <c r="F47" t="n">
-        <v>61531</v>
+        <v>61570</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01053583298926242</v>
+        <v>0.01202833300339989</v>
       </c>
     </row>
     <row r="48">
@@ -1537,16 +1537,16 @@
         <v>5600</v>
       </c>
       <c r="D48" t="n">
-        <v>63833</v>
+        <v>63885</v>
       </c>
       <c r="E48" t="n">
-        <v>0.00903850000759121</v>
+        <v>0.009754833998158574</v>
       </c>
       <c r="F48" t="n">
-        <v>62804</v>
+        <v>62778</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01056020800024271</v>
+        <v>0.01113208399328869</v>
       </c>
     </row>
     <row r="49">
@@ -1560,16 +1560,16 @@
         <v>5700</v>
       </c>
       <c r="D49" t="n">
-        <v>64980</v>
+        <v>64965</v>
       </c>
       <c r="E49" t="n">
-        <v>0.009291249996749684</v>
+        <v>0.009596999996574596</v>
       </c>
       <c r="F49" t="n">
-        <v>64019</v>
+        <v>64034</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01081675000023097</v>
+        <v>0.0112023340043379</v>
       </c>
     </row>
     <row r="50">
@@ -1583,16 +1583,16 @@
         <v>5800</v>
       </c>
       <c r="D50" t="n">
-        <v>66386</v>
+        <v>66265</v>
       </c>
       <c r="E50" t="n">
-        <v>0.009378707996802405</v>
+        <v>0.009611290995962918</v>
       </c>
       <c r="F50" t="n">
-        <v>65326</v>
+        <v>65283</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01103100000182167</v>
+        <v>0.01139758399222046</v>
       </c>
     </row>
     <row r="51">
@@ -1606,16 +1606,16 @@
         <v>5900</v>
       </c>
       <c r="D51" t="n">
-        <v>67609</v>
+        <v>67686</v>
       </c>
       <c r="E51" t="n">
-        <v>0.009559124999213964</v>
+        <v>0.009809209004743025</v>
       </c>
       <c r="F51" t="n">
-        <v>66610</v>
+        <v>66585</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01116016600281</v>
+        <v>0.01186758400581311</v>
       </c>
     </row>
     <row r="52">
@@ -1629,16 +1629,16 @@
         <v>6000</v>
       </c>
       <c r="D52" t="n">
-        <v>68889</v>
+        <v>68933</v>
       </c>
       <c r="E52" t="n">
-        <v>0.009681540992460214</v>
+        <v>0.01040379199548624</v>
       </c>
       <c r="F52" t="n">
-        <v>67809</v>
+        <v>67804</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01137804200698156</v>
+        <v>0.01204229200084228</v>
       </c>
     </row>
     <row r="53">
@@ -1652,16 +1652,16 @@
         <v>6100</v>
       </c>
       <c r="D53" t="n">
-        <v>70414</v>
+        <v>70358</v>
       </c>
       <c r="E53" t="n">
-        <v>0.009925874997861683</v>
+        <v>0.01038866699673235</v>
       </c>
       <c r="F53" t="n">
-        <v>69144</v>
+        <v>69082</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01157733400759753</v>
+        <v>0.01213204099622089</v>
       </c>
     </row>
     <row r="54">
@@ -1675,16 +1675,16 @@
         <v>6200</v>
       </c>
       <c r="D54" t="n">
-        <v>71743</v>
+        <v>71723</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01005908299703151</v>
+        <v>0.01061016699532047</v>
       </c>
       <c r="F54" t="n">
-        <v>70390</v>
+        <v>70369</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01179929199861363</v>
+        <v>0.01221245799388271</v>
       </c>
     </row>
     <row r="55">
@@ -1698,16 +1698,16 @@
         <v>6300</v>
       </c>
       <c r="D55" t="n">
-        <v>73024</v>
+        <v>73091</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0102340000012191</v>
+        <v>0.01058991700119805</v>
       </c>
       <c r="F55" t="n">
-        <v>71703</v>
+        <v>71666</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01200999999127816</v>
+        <v>0.01234395800565835</v>
       </c>
     </row>
     <row r="56">
@@ -1721,16 +1721,16 @@
         <v>6400</v>
       </c>
       <c r="D56" t="n">
-        <v>74472</v>
+        <v>74557</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01041324999823701</v>
+        <v>0.01075029200001154</v>
       </c>
       <c r="F56" t="n">
-        <v>72968</v>
+        <v>72986</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01224762499623466</v>
+        <v>0.01296608400298283</v>
       </c>
     </row>
     <row r="57">
@@ -1744,16 +1744,16 @@
         <v>6500</v>
       </c>
       <c r="D57" t="n">
-        <v>75755</v>
+        <v>75879</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01056808300199918</v>
+        <v>0.01232408299983945</v>
       </c>
       <c r="F57" t="n">
-        <v>74287</v>
+        <v>74212</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01242437500332016</v>
+        <v>0.01357854199886788</v>
       </c>
     </row>
     <row r="58">
@@ -1767,16 +1767,16 @@
         <v>6600</v>
       </c>
       <c r="D58" t="n">
-        <v>77050</v>
+        <v>77318</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01078129200323019</v>
+        <v>0.01114887499716133</v>
       </c>
       <c r="F58" t="n">
-        <v>75394</v>
+        <v>75544</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01265579200116917</v>
+        <v>0.0136689170030877</v>
       </c>
     </row>
     <row r="59">
@@ -1790,16 +1790,16 @@
         <v>6700</v>
       </c>
       <c r="D59" t="n">
-        <v>78542</v>
+        <v>78713</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01093533300445415</v>
+        <v>0.01123216601263266</v>
       </c>
       <c r="F59" t="n">
-        <v>76785</v>
+        <v>76817</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01283516600960866</v>
+        <v>0.01348737499210984</v>
       </c>
     </row>
     <row r="60">
@@ -1813,16 +1813,16 @@
         <v>6800</v>
       </c>
       <c r="D60" t="n">
-        <v>79872</v>
+        <v>80034</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01108283299254254</v>
+        <v>0.0117264579894254</v>
       </c>
       <c r="F60" t="n">
-        <v>78037</v>
+        <v>78195</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01307233399711549</v>
+        <v>0.01355720800347626</v>
       </c>
     </row>
     <row r="61">
@@ -1836,16 +1836,16 @@
         <v>6900</v>
       </c>
       <c r="D61" t="n">
-        <v>81485</v>
+        <v>81480</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01145141699817032</v>
+        <v>0.01166454100166447</v>
       </c>
       <c r="F61" t="n">
-        <v>79395</v>
+        <v>79443</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01335833300254308</v>
+        <v>0.01426408300176263</v>
       </c>
     </row>
     <row r="62">
@@ -1859,16 +1859,16 @@
         <v>7000</v>
       </c>
       <c r="D62" t="n">
-        <v>82729</v>
+        <v>82608</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01143745899025816</v>
+        <v>0.01198283401026856</v>
       </c>
       <c r="F62" t="n">
-        <v>80774</v>
+        <v>80741</v>
       </c>
       <c r="G62" t="n">
-        <v>0.01352595799835399</v>
+        <v>0.01516216598975006</v>
       </c>
     </row>
     <row r="63">
@@ -1882,16 +1882,16 @@
         <v>7100</v>
       </c>
       <c r="D63" t="n">
-        <v>84132</v>
+        <v>84192</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01164691700250842</v>
+        <v>0.01275070800329559</v>
       </c>
       <c r="F63" t="n">
-        <v>81994</v>
+        <v>82011</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01372904099116568</v>
+        <v>0.01443187500990462</v>
       </c>
     </row>
     <row r="64">
@@ -1905,16 +1905,16 @@
         <v>7200</v>
       </c>
       <c r="D64" t="n">
-        <v>85512</v>
+        <v>85584</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01181541700498201</v>
+        <v>0.01219074999971781</v>
       </c>
       <c r="F64" t="n">
-        <v>83279</v>
+        <v>83224</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01390837499639019</v>
+        <v>0.01433829200686887</v>
       </c>
     </row>
     <row r="65">
@@ -1928,16 +1928,16 @@
         <v>7300</v>
       </c>
       <c r="D65" t="n">
-        <v>86977</v>
+        <v>87019</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0119810000032885</v>
+        <v>0.0124541249970207</v>
       </c>
       <c r="F65" t="n">
-        <v>84571</v>
+        <v>84643</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01415274999453686</v>
+        <v>0.01446370799385477</v>
       </c>
     </row>
     <row r="66">
@@ -1951,16 +1951,16 @@
         <v>7400</v>
       </c>
       <c r="D66" t="n">
-        <v>88396</v>
+        <v>88483</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01212499999382999</v>
+        <v>0.01249712498974986</v>
       </c>
       <c r="F66" t="n">
-        <v>85876</v>
+        <v>85852</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01433029200416058</v>
+        <v>0.01474191599118058</v>
       </c>
     </row>
     <row r="67">
@@ -1974,16 +1974,16 @@
         <v>7500</v>
       </c>
       <c r="D67" t="n">
-        <v>89936</v>
+        <v>89659</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01231945799372625</v>
+        <v>0.01284237499930896</v>
       </c>
       <c r="F67" t="n">
-        <v>87181</v>
+        <v>87153</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01453379199665505</v>
+        <v>0.01514187500288244</v>
       </c>
     </row>
     <row r="68">
@@ -1997,16 +1997,16 @@
         <v>7600</v>
       </c>
       <c r="D68" t="n">
-        <v>91291</v>
+        <v>91121</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01251887500984594</v>
+        <v>0.01282808299583849</v>
       </c>
       <c r="F68" t="n">
-        <v>88501</v>
+        <v>88371</v>
       </c>
       <c r="G68" t="n">
-        <v>0.01475308299995959</v>
+        <v>0.01518983299320098</v>
       </c>
     </row>
     <row r="69">
@@ -2020,16 +2020,16 @@
         <v>7700</v>
       </c>
       <c r="D69" t="n">
-        <v>92860</v>
+        <v>92654</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01268966599309351</v>
+        <v>0.01343112500035204</v>
       </c>
       <c r="F69" t="n">
-        <v>89715</v>
+        <v>89691</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01495354200596921</v>
+        <v>0.01570908300345764</v>
       </c>
     </row>
     <row r="70">
@@ -2043,16 +2043,16 @@
         <v>7800</v>
       </c>
       <c r="D70" t="n">
-        <v>94203</v>
+        <v>94227</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01289404199633282</v>
+        <v>0.01366783399134874</v>
       </c>
       <c r="F70" t="n">
-        <v>91050</v>
+        <v>91059</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01518029200087767</v>
+        <v>0.0182391669950448</v>
       </c>
     </row>
     <row r="71">
@@ -2066,16 +2066,16 @@
         <v>7900</v>
       </c>
       <c r="D71" t="n">
-        <v>95422</v>
+        <v>95502</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01300004198856186</v>
+        <v>0.01479566699708812</v>
       </c>
       <c r="F71" t="n">
-        <v>92350</v>
+        <v>92271</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01534050000191201</v>
+        <v>0.01693191699450836</v>
       </c>
     </row>
     <row r="72">
@@ -2089,16 +2089,16 @@
         <v>8000</v>
       </c>
       <c r="D72" t="n">
-        <v>97044</v>
+        <v>96937</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01328291700338013</v>
+        <v>0.01443300000391901</v>
       </c>
       <c r="F72" t="n">
-        <v>93642</v>
+        <v>93666</v>
       </c>
       <c r="G72" t="n">
-        <v>0.01562087499769405</v>
+        <v>0.01685279200319201</v>
       </c>
     </row>
     <row r="73">
@@ -2112,16 +2112,16 @@
         <v>8100</v>
       </c>
       <c r="D73" t="n">
-        <v>98338</v>
+        <v>98628</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01335054200899322</v>
+        <v>0.01485887500166427</v>
       </c>
       <c r="F73" t="n">
-        <v>94925</v>
+        <v>94970</v>
       </c>
       <c r="G73" t="n">
-        <v>0.01579416599997785</v>
+        <v>0.01776879100361839</v>
       </c>
     </row>
     <row r="74">
@@ -2135,16 +2135,16 @@
         <v>8200</v>
       </c>
       <c r="D74" t="n">
-        <v>99993</v>
+        <v>99850</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01380279099976178</v>
+        <v>0.0185477499908302</v>
       </c>
       <c r="F74" t="n">
-        <v>96294</v>
+        <v>96191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.01611391700862441</v>
+        <v>0.02236733400786761</v>
       </c>
     </row>
     <row r="75">
@@ -2158,16 +2158,16 @@
         <v>8300</v>
       </c>
       <c r="D75" t="n">
-        <v>101557</v>
+        <v>101401</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0139079169894103</v>
+        <v>0.01678029200411402</v>
       </c>
       <c r="F75" t="n">
-        <v>97581</v>
+        <v>97532</v>
       </c>
       <c r="G75" t="n">
-        <v>0.01630750000185799</v>
+        <v>0.01698412500263657</v>
       </c>
     </row>
     <row r="76">
@@ -2181,16 +2181,16 @@
         <v>8400</v>
       </c>
       <c r="D76" t="n">
-        <v>102797</v>
+        <v>103038</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01403512500110082</v>
+        <v>0.01447487500263378</v>
       </c>
       <c r="F76" t="n">
-        <v>98858</v>
+        <v>98978</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01658208300068509</v>
+        <v>0.01692558299691882</v>
       </c>
     </row>
     <row r="77">
@@ -2204,16 +2204,16 @@
         <v>8500</v>
       </c>
       <c r="D77" t="n">
-        <v>104614</v>
+        <v>104412</v>
       </c>
       <c r="E77" t="n">
-        <v>0.01426154200453311</v>
+        <v>0.01456762499583419</v>
       </c>
       <c r="F77" t="n">
-        <v>100259</v>
+        <v>100331</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01674950000597164</v>
+        <v>0.01701787501224317</v>
       </c>
     </row>
     <row r="78">
@@ -2227,16 +2227,16 @@
         <v>8600</v>
       </c>
       <c r="D78" t="n">
-        <v>105631</v>
+        <v>105948</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0144020419975277</v>
+        <v>0.01469654199900106</v>
       </c>
       <c r="F78" t="n">
-        <v>101625</v>
+        <v>101584</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01697120899916627</v>
+        <v>0.017394125010469</v>
       </c>
     </row>
     <row r="79">
@@ -2250,16 +2250,16 @@
         <v>8700</v>
       </c>
       <c r="D79" t="n">
-        <v>107483</v>
+        <v>107366</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01473204199282918</v>
+        <v>0.0152134579984704</v>
       </c>
       <c r="F79" t="n">
-        <v>102954</v>
+        <v>103074</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01726891599537339</v>
+        <v>0.01767300000938121</v>
       </c>
     </row>
     <row r="80">
@@ -2273,16 +2273,16 @@
         <v>8800</v>
       </c>
       <c r="D80" t="n">
-        <v>108848</v>
+        <v>108530</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0149240830069175</v>
+        <v>0.01588941599766258</v>
       </c>
       <c r="F80" t="n">
-        <v>104341</v>
+        <v>104220</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0175032499973895</v>
+        <v>0.01844412500213366</v>
       </c>
     </row>
     <row r="81">
@@ -2296,16 +2296,16 @@
         <v>8900</v>
       </c>
       <c r="D81" t="n">
-        <v>110401</v>
+        <v>110211</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01501712499884889</v>
+        <v>0.01577825000276789</v>
       </c>
       <c r="F81" t="n">
-        <v>105710</v>
+        <v>105679</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01771504200587515</v>
+        <v>0.01846908300649375</v>
       </c>
     </row>
     <row r="82">
@@ -2319,16 +2319,16 @@
         <v>9000</v>
       </c>
       <c r="D82" t="n">
-        <v>111726</v>
+        <v>111713</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0152216669957852</v>
+        <v>0.01602295800694264</v>
       </c>
       <c r="F82" t="n">
-        <v>106971</v>
+        <v>106939</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0178578750055749</v>
+        <v>0.01896762500109617</v>
       </c>
     </row>
     <row r="83">
@@ -2342,16 +2342,16 @@
         <v>9100</v>
       </c>
       <c r="D83" t="n">
-        <v>113361</v>
+        <v>113251</v>
       </c>
       <c r="E83" t="n">
-        <v>0.01533604199357796</v>
+        <v>0.01636700000381097</v>
       </c>
       <c r="F83" t="n">
-        <v>108357</v>
+        <v>108262</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01813491601205897</v>
+        <v>0.01942454199888743</v>
       </c>
     </row>
     <row r="84">
@@ -2365,16 +2365,16 @@
         <v>9200</v>
       </c>
       <c r="D84" t="n">
-        <v>115011</v>
+        <v>114738</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01552000000083353</v>
+        <v>0.01651033299276605</v>
       </c>
       <c r="F84" t="n">
-        <v>109691</v>
+        <v>109591</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01828566599579062</v>
+        <v>0.01907579098769929</v>
       </c>
     </row>
     <row r="85">
@@ -2388,16 +2388,16 @@
         <v>9300</v>
       </c>
       <c r="D85" t="n">
-        <v>116090</v>
+        <v>116375</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01568125000630971</v>
+        <v>0.01653404200624209</v>
       </c>
       <c r="F85" t="n">
-        <v>110965</v>
+        <v>110993</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01851329099736176</v>
+        <v>0.01937429199460894</v>
       </c>
     </row>
     <row r="86">
@@ -2411,16 +2411,16 @@
         <v>9400</v>
       </c>
       <c r="D86" t="n">
-        <v>117681</v>
+        <v>117818</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01587066698994022</v>
+        <v>0.01677820799523033</v>
       </c>
       <c r="F86" t="n">
-        <v>112326</v>
+        <v>112300</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01872025000920985</v>
+        <v>0.01959591600461863</v>
       </c>
     </row>
     <row r="87">
@@ -2434,16 +2434,16 @@
         <v>9500</v>
       </c>
       <c r="D87" t="n">
-        <v>119368</v>
+        <v>119344</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01610045800043736</v>
+        <v>0.01686029200209305</v>
       </c>
       <c r="F87" t="n">
-        <v>113601</v>
+        <v>113718</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01892179099377245</v>
+        <v>0.02025154199509416</v>
       </c>
     </row>
     <row r="88">
@@ -2457,16 +2457,16 @@
         <v>9600</v>
       </c>
       <c r="D88" t="n">
-        <v>120879</v>
+        <v>120929</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01624416600679979</v>
+        <v>0.0171238749899203</v>
       </c>
       <c r="F88" t="n">
-        <v>115053</v>
+        <v>115027</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01923258299939334</v>
+        <v>0.01959312500548549</v>
       </c>
     </row>
     <row r="89">
@@ -2480,16 +2480,16 @@
         <v>9700</v>
       </c>
       <c r="D89" t="n">
-        <v>122293</v>
+        <v>122644</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0164265420025913</v>
+        <v>0.01712274999590591</v>
       </c>
       <c r="F89" t="n">
-        <v>116419</v>
+        <v>116360</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01961141699575819</v>
+        <v>0.01980916700267699</v>
       </c>
     </row>
     <row r="90">
@@ -2503,16 +2503,16 @@
         <v>9800</v>
       </c>
       <c r="D90" t="n">
-        <v>123875</v>
+        <v>123976</v>
       </c>
       <c r="E90" t="n">
-        <v>0.01696783400257118</v>
+        <v>0.01697724999394268</v>
       </c>
       <c r="F90" t="n">
-        <v>117652</v>
+        <v>117739</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01962175000517163</v>
+        <v>0.02003541600424796</v>
       </c>
     </row>
     <row r="91">
@@ -2526,16 +2526,16 @@
         <v>9900</v>
       </c>
       <c r="D91" t="n">
-        <v>125521</v>
+        <v>125295</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01707449999230448</v>
+        <v>0.01729887499823235</v>
       </c>
       <c r="F91" t="n">
-        <v>119119</v>
+        <v>119054</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02010341700224672</v>
+        <v>0.02044841699535027</v>
       </c>
     </row>
     <row r="92">
@@ -2549,16 +2549,16 @@
         <v>10000</v>
       </c>
       <c r="D92" t="n">
-        <v>126865</v>
+        <v>127052</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01708829100243747</v>
+        <v>0.01737104199128225</v>
       </c>
       <c r="F92" t="n">
-        <v>120466</v>
+        <v>120454</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02009379200171679</v>
+        <v>0.02058016600494739</v>
       </c>
     </row>
   </sheetData>
@@ -2623,16 +2623,16 @@
         <v>10000</v>
       </c>
       <c r="D2" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02389149999362417</v>
+        <v>0.02375504100928083</v>
       </c>
       <c r="F2" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02086799999233335</v>
+        <v>0.02131075000215787</v>
       </c>
     </row>
     <row r="3">
@@ -2646,16 +2646,16 @@
         <v>10000</v>
       </c>
       <c r="D3" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02078991700545885</v>
+        <v>0.021219915986876</v>
       </c>
       <c r="F3" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02037833399663214</v>
+        <v>0.02107599998998921</v>
       </c>
     </row>
     <row r="4">
@@ -2669,16 +2669,16 @@
         <v>10000</v>
       </c>
       <c r="D4" t="n">
-        <v>120426</v>
+        <v>120559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01932658300211187</v>
+        <v>0.01976920801098458</v>
       </c>
       <c r="F4" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02074191700376105</v>
+        <v>0.02114191600412596</v>
       </c>
     </row>
     <row r="5">
@@ -2692,16 +2692,16 @@
         <v>10000</v>
       </c>
       <c r="D5" t="n">
-        <v>120478</v>
+        <v>120598</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01908537499548402</v>
+        <v>0.01983887499955017</v>
       </c>
       <c r="F5" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0204065419966355</v>
+        <v>0.02101370799937285</v>
       </c>
     </row>
     <row r="6">
@@ -2715,16 +2715,16 @@
         <v>10000</v>
       </c>
       <c r="D6" t="n">
-        <v>121497</v>
+        <v>121624</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01766399999905843</v>
+        <v>0.01827133299957495</v>
       </c>
       <c r="F6" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02026162500260398</v>
+        <v>0.02143595799861941</v>
       </c>
     </row>
     <row r="7">
@@ -2738,16 +2738,16 @@
         <v>10000</v>
       </c>
       <c r="D7" t="n">
-        <v>121497</v>
+        <v>121624</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01756749999185558</v>
+        <v>0.01838258300267626</v>
       </c>
       <c r="F7" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02056095800071489</v>
+        <v>0.02077724999981001</v>
       </c>
     </row>
     <row r="8">
@@ -2761,16 +2761,16 @@
         <v>10000</v>
       </c>
       <c r="D8" t="n">
-        <v>121497</v>
+        <v>121624</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01766695900005288</v>
+        <v>0.01828883300186135</v>
       </c>
       <c r="F8" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0201343749940861</v>
+        <v>0.02131379200727679</v>
       </c>
     </row>
     <row r="9">
@@ -2784,16 +2784,16 @@
         <v>10000</v>
       </c>
       <c r="D9" t="n">
-        <v>121497</v>
+        <v>121624</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01762050000252202</v>
+        <v>0.01770850000320934</v>
       </c>
       <c r="F9" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02006812499894295</v>
+        <v>0.02077770800678991</v>
       </c>
     </row>
     <row r="10">
@@ -2807,16 +2807,16 @@
         <v>10000</v>
       </c>
       <c r="D10" t="n">
-        <v>122405</v>
+        <v>122598</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01747279100527521</v>
+        <v>0.01788916700752452</v>
       </c>
       <c r="F10" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02014583299751393</v>
+        <v>0.02066699998977128</v>
       </c>
     </row>
     <row r="11">
@@ -2830,16 +2830,16 @@
         <v>10000</v>
       </c>
       <c r="D11" t="n">
-        <v>126920</v>
+        <v>127063</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01714533299673349</v>
+        <v>0.01739083300344646</v>
       </c>
       <c r="F11" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02013920799072366</v>
+        <v>0.02028195800085086</v>
       </c>
     </row>
     <row r="12">
@@ -2853,16 +2853,16 @@
         <v>10000</v>
       </c>
       <c r="D12" t="n">
-        <v>126920</v>
+        <v>127063</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0171395420038607</v>
+        <v>0.01722404100291897</v>
       </c>
       <c r="F12" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02021729099215008</v>
+        <v>0.02037724999536294</v>
       </c>
     </row>
     <row r="13">
@@ -2876,16 +2876,16 @@
         <v>10000</v>
       </c>
       <c r="D13" t="n">
-        <v>126920</v>
+        <v>127063</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01715270799468271</v>
+        <v>0.01737187500111759</v>
       </c>
       <c r="F13" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02034495800035074</v>
+        <v>0.02070733399887104</v>
       </c>
     </row>
     <row r="14">
@@ -2899,16 +2899,16 @@
         <v>10000</v>
       </c>
       <c r="D14" t="n">
-        <v>126920</v>
+        <v>127063</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01745741699414793</v>
+        <v>0.01762304099975154</v>
       </c>
       <c r="F14" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02055070799542591</v>
+        <v>0.0206547919951845</v>
       </c>
     </row>
     <row r="15">
@@ -2922,16 +2922,16 @@
         <v>10000</v>
       </c>
       <c r="D15" t="n">
-        <v>126920</v>
+        <v>127063</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01731658399512526</v>
+        <v>0.01775408298999537</v>
       </c>
       <c r="F15" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02020199999969918</v>
+        <v>0.02042612500372343</v>
       </c>
     </row>
     <row r="16">
@@ -2945,16 +2945,16 @@
         <v>10000</v>
       </c>
       <c r="D16" t="n">
-        <v>126920</v>
+        <v>127063</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01711975000216626</v>
+        <v>0.017372707996401</v>
       </c>
       <c r="F16" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02024762499786448</v>
+        <v>0.02049033300136216</v>
       </c>
     </row>
     <row r="17">
@@ -2968,16 +2968,16 @@
         <v>10000</v>
       </c>
       <c r="D17" t="n">
-        <v>126920</v>
+        <v>127063</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01749041599396151</v>
+        <v>0.01733437499206048</v>
       </c>
       <c r="F17" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02043087501078844</v>
+        <v>0.02037412500067148</v>
       </c>
     </row>
     <row r="18">
@@ -2991,16 +2991,16 @@
         <v>10000</v>
       </c>
       <c r="D18" t="n">
-        <v>126920</v>
+        <v>127063</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01707162499951664</v>
+        <v>0.01753658399684355</v>
       </c>
       <c r="F18" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02016058401204646</v>
+        <v>0.02049245900707319</v>
       </c>
     </row>
     <row r="19">
@@ -3014,16 +3014,16 @@
         <v>10000</v>
       </c>
       <c r="D19" t="n">
-        <v>126920</v>
+        <v>127063</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0170612079964485</v>
+        <v>0.0175909999961732</v>
       </c>
       <c r="F19" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02007466700160876</v>
+        <v>0.02050404099281877</v>
       </c>
     </row>
     <row r="20">
@@ -3037,16 +3037,16 @@
         <v>10000</v>
       </c>
       <c r="D20" t="n">
-        <v>133922</v>
+        <v>134536</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01749058399582282</v>
+        <v>0.01780254099867307</v>
       </c>
       <c r="F20" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02010424999753013</v>
+        <v>0.02032183299888857</v>
       </c>
     </row>
     <row r="21">
@@ -3060,16 +3060,16 @@
         <v>10000</v>
       </c>
       <c r="D21" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01814862499304581</v>
+        <v>0.01837708298990037</v>
       </c>
       <c r="F21" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02012362499954179</v>
+        <v>0.02019008299976122</v>
       </c>
     </row>
     <row r="22">
@@ -3083,16 +3083,16 @@
         <v>10000</v>
       </c>
       <c r="D22" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01812620800046716</v>
+        <v>0.01845395799318794</v>
       </c>
       <c r="F22" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02007429100922309</v>
+        <v>0.02034775000356603</v>
       </c>
     </row>
     <row r="23">
@@ -3106,16 +3106,16 @@
         <v>10000</v>
       </c>
       <c r="D23" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01817529200343415</v>
+        <v>0.01842320800642483</v>
       </c>
       <c r="F23" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02015033300267532</v>
+        <v>0.0207022499962477</v>
       </c>
     </row>
     <row r="24">
@@ -3129,16 +3129,16 @@
         <v>10000</v>
       </c>
       <c r="D24" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E24" t="n">
-        <v>0.018423540997901</v>
+        <v>0.01843879200168885</v>
       </c>
       <c r="F24" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02028204199450556</v>
+        <v>0.02037679099885281</v>
       </c>
     </row>
     <row r="25">
@@ -3152,16 +3152,16 @@
         <v>10000</v>
       </c>
       <c r="D25" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01847462500154506</v>
+        <v>0.01839179200760555</v>
       </c>
       <c r="F25" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02034666600229684</v>
+        <v>0.02032354100083467</v>
       </c>
     </row>
     <row r="26">
@@ -3175,16 +3175,16 @@
         <v>10000</v>
       </c>
       <c r="D26" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01821633300278336</v>
+        <v>0.01840220800659154</v>
       </c>
       <c r="F26" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0202520419989014</v>
+        <v>0.02030162500159349</v>
       </c>
     </row>
     <row r="27">
@@ -3198,16 +3198,16 @@
         <v>10000</v>
       </c>
       <c r="D27" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01820725000288803</v>
+        <v>0.01828133300296031</v>
       </c>
       <c r="F27" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02035195800999645</v>
+        <v>0.02050329200574197</v>
       </c>
     </row>
     <row r="28">
@@ -3221,16 +3221,16 @@
         <v>10000</v>
       </c>
       <c r="D28" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01814845799526665</v>
+        <v>0.01831337499606889</v>
       </c>
       <c r="F28" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02019066701177508</v>
+        <v>0.02059512501000427</v>
       </c>
     </row>
     <row r="29">
@@ -3244,16 +3244,16 @@
         <v>10000</v>
       </c>
       <c r="D29" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0180851250042906</v>
+        <v>0.0184112080023624</v>
       </c>
       <c r="F29" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02009774999169167</v>
+        <v>0.02040454100642819</v>
       </c>
     </row>
     <row r="30">
@@ -3267,16 +3267,16 @@
         <v>10000</v>
       </c>
       <c r="D30" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01812454199534841</v>
+        <v>0.01840891700703651</v>
       </c>
       <c r="F30" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02008866598771419</v>
+        <v>0.02036212499660905</v>
       </c>
     </row>
     <row r="31">
@@ -3290,16 +3290,16 @@
         <v>10000</v>
       </c>
       <c r="D31" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01820137500180863</v>
+        <v>0.01847183299832977</v>
       </c>
       <c r="F31" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0201870000018971</v>
+        <v>0.02030350000131875</v>
       </c>
     </row>
     <row r="32">
@@ -3313,16 +3313,16 @@
         <v>10000</v>
       </c>
       <c r="D32" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01811062499473337</v>
+        <v>0.01834295901062433</v>
       </c>
       <c r="F32" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02012200000172015</v>
+        <v>0.02033516700612381</v>
       </c>
     </row>
     <row r="33">
@@ -3336,16 +3336,16 @@
         <v>10000</v>
       </c>
       <c r="D33" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0181728750030743</v>
+        <v>0.01833562499086838</v>
       </c>
       <c r="F33" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02023304199974518</v>
+        <v>0.02035095899191219</v>
       </c>
     </row>
     <row r="34">
@@ -3359,16 +3359,16 @@
         <v>10000</v>
       </c>
       <c r="D34" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01815666600305121</v>
+        <v>0.0184546669916017</v>
       </c>
       <c r="F34" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02008283299801406</v>
+        <v>0.02024462498957291</v>
       </c>
     </row>
     <row r="35">
@@ -3382,16 +3382,16 @@
         <v>10000</v>
       </c>
       <c r="D35" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0181408329954138</v>
+        <v>0.01872849999926984</v>
       </c>
       <c r="F35" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02012220800679643</v>
+        <v>0.02055404201382771</v>
       </c>
     </row>
     <row r="36">
@@ -3405,16 +3405,16 @@
         <v>10000</v>
       </c>
       <c r="D36" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01828066699090414</v>
+        <v>0.01888954199966975</v>
       </c>
       <c r="F36" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02010770799824968</v>
+        <v>0.02069358399603516</v>
       </c>
     </row>
     <row r="37">
@@ -3428,16 +3428,16 @@
         <v>10000</v>
       </c>
       <c r="D37" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01816570799564943</v>
+        <v>0.01883266700315289</v>
       </c>
       <c r="F37" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02008912499877624</v>
+        <v>0.02124762500170618</v>
       </c>
     </row>
     <row r="38">
@@ -3451,16 +3451,16 @@
         <v>10000</v>
       </c>
       <c r="D38" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01813987499917857</v>
+        <v>0.01987029099836946</v>
       </c>
       <c r="F38" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02006999999866821</v>
+        <v>0.02111712499754503</v>
       </c>
     </row>
     <row r="39">
@@ -3474,16 +3474,16 @@
         <v>10000</v>
       </c>
       <c r="D39" t="n">
-        <v>143251</v>
+        <v>143972</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01805470800900366</v>
+        <v>0.01902337500359863</v>
       </c>
       <c r="F39" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02015212499827612</v>
+        <v>0.02124175000062678</v>
       </c>
     </row>
     <row r="40">
@@ -3497,16 +3497,16 @@
         <v>10000</v>
       </c>
       <c r="D40" t="n">
-        <v>181335</v>
+        <v>180930</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02182541700312868</v>
+        <v>0.02324137499090284</v>
       </c>
       <c r="F40" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02039066700672265</v>
+        <v>0.02064433300984092</v>
       </c>
     </row>
     <row r="41">
@@ -3520,16 +3520,16 @@
         <v>10000</v>
       </c>
       <c r="D41" t="n">
-        <v>183997</v>
+        <v>183491</v>
       </c>
       <c r="E41" t="n">
-        <v>0.021931625000434</v>
+        <v>0.02301704199635424</v>
       </c>
       <c r="F41" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02005129099416081</v>
+        <v>0.0210907910077367</v>
       </c>
     </row>
     <row r="42">
@@ -3543,16 +3543,16 @@
         <v>10000</v>
       </c>
       <c r="D42" t="n">
-        <v>183997</v>
+        <v>183491</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02183070800674614</v>
+        <v>0.02255974999570753</v>
       </c>
       <c r="F42" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02028745799907483</v>
+        <v>0.02062883299367968</v>
       </c>
     </row>
     <row r="43">
@@ -3566,16 +3566,16 @@
         <v>10000</v>
       </c>
       <c r="D43" t="n">
-        <v>183997</v>
+        <v>183491</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02202283400401939</v>
+        <v>0.02255949999380391</v>
       </c>
       <c r="F43" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02012462499260437</v>
+        <v>0.0209484580118442</v>
       </c>
     </row>
     <row r="44">
@@ -3589,16 +3589,16 @@
         <v>10000</v>
       </c>
       <c r="D44" t="n">
-        <v>183997</v>
+        <v>183491</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02204825000080746</v>
+        <v>0.02256066699919757</v>
       </c>
       <c r="F44" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02021062500716653</v>
+        <v>0.02064641600009054</v>
       </c>
     </row>
     <row r="45">
@@ -3612,16 +3612,16 @@
         <v>10000</v>
       </c>
       <c r="D45" t="n">
-        <v>183997</v>
+        <v>183491</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02192770800320432</v>
+        <v>0.02248150001105387</v>
       </c>
       <c r="F45" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02011387499806006</v>
+        <v>0.02071108399832156</v>
       </c>
     </row>
     <row r="46">
@@ -3635,16 +3635,16 @@
         <v>10000</v>
       </c>
       <c r="D46" t="n">
-        <v>183997</v>
+        <v>183491</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02220474999921862</v>
+        <v>0.02243233400804456</v>
       </c>
       <c r="F46" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02090187500289176</v>
+        <v>0.0209059589979006</v>
       </c>
     </row>
     <row r="47">
@@ -3658,16 +3658,16 @@
         <v>10000</v>
       </c>
       <c r="D47" t="n">
-        <v>183997</v>
+        <v>183491</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0218843329930678</v>
+        <v>0.02223445900017396</v>
       </c>
       <c r="F47" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02003200000035577</v>
+        <v>0.02083300000231247</v>
       </c>
     </row>
     <row r="48">
@@ -3681,16 +3681,16 @@
         <v>10000</v>
       </c>
       <c r="D48" t="n">
-        <v>183997</v>
+        <v>183491</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0220170410029823</v>
+        <v>0.02204725000774488</v>
       </c>
       <c r="F48" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02025391699862666</v>
+        <v>0.02043895900715142</v>
       </c>
     </row>
     <row r="49">
@@ -3704,16 +3704,16 @@
         <v>10000</v>
       </c>
       <c r="D49" t="n">
-        <v>183997</v>
+        <v>183491</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02222625000285916</v>
+        <v>0.02216187499288935</v>
       </c>
       <c r="F49" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02014183400024194</v>
+        <v>0.02117654199537355</v>
       </c>
     </row>
     <row r="50">
@@ -3727,16 +3727,16 @@
         <v>10000</v>
       </c>
       <c r="D50" t="n">
-        <v>183997</v>
+        <v>183491</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0219118749955669</v>
+        <v>0.02311270899372175</v>
       </c>
       <c r="F50" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02009762500529177</v>
+        <v>0.02060379199974705</v>
       </c>
     </row>
     <row r="51">
@@ -3750,16 +3750,16 @@
         <v>10000</v>
       </c>
       <c r="D51" t="n">
-        <v>183997</v>
+        <v>183491</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02194716699887067</v>
+        <v>0.02203158299380448</v>
       </c>
       <c r="F51" t="n">
-        <v>120396</v>
+        <v>120574</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02015550000942312</v>
+        <v>0.02037212499999441</v>
       </c>
     </row>
   </sheetData>
@@ -3814,10 +3814,10 @@
         <v>1000</v>
       </c>
       <c r="D2" t="n">
-        <v>8700</v>
+        <v>8734</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001865333004388958</v>
+        <v>0.001849291002145037</v>
       </c>
     </row>
     <row r="3">
@@ -3831,10 +3831,10 @@
         <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>8689</v>
+        <v>8675</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001492791998316534</v>
+        <v>0.001520125006209128</v>
       </c>
     </row>
     <row r="4">
@@ -3848,10 +3848,10 @@
         <v>1000</v>
       </c>
       <c r="D4" t="n">
-        <v>8720</v>
+        <v>8709</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001495665987022221</v>
+        <v>0.00150266700075008</v>
       </c>
     </row>
     <row r="5">
@@ -3865,10 +3865,10 @@
         <v>1000</v>
       </c>
       <c r="D5" t="n">
-        <v>8761</v>
+        <v>8759</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001327999998466112</v>
+        <v>0.001330583996605128</v>
       </c>
     </row>
     <row r="6">
@@ -3882,10 +3882,10 @@
         <v>1000</v>
       </c>
       <c r="D6" t="n">
-        <v>8809</v>
+        <v>8805</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001333332998910919</v>
+        <v>0.001353375002508983</v>
       </c>
     </row>
     <row r="7">
@@ -3899,10 +3899,10 @@
         <v>1000</v>
       </c>
       <c r="D7" t="n">
-        <v>8764</v>
+        <v>8761</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001321040996117517</v>
+        <v>0.001335792010650039</v>
       </c>
     </row>
     <row r="8">
@@ -3916,10 +3916,10 @@
         <v>1000</v>
       </c>
       <c r="D8" t="n">
-        <v>8786</v>
+        <v>8810</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001307833008468151</v>
+        <v>0.001343582989647985</v>
       </c>
     </row>
     <row r="9">
@@ -3933,10 +3933,10 @@
         <v>1000</v>
       </c>
       <c r="D9" t="n">
-        <v>9124</v>
+        <v>9103</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001286667000385933</v>
+        <v>0.001248749991646037</v>
       </c>
     </row>
     <row r="10">
@@ -3950,10 +3950,10 @@
         <v>1000</v>
       </c>
       <c r="D10" t="n">
-        <v>9102</v>
+        <v>9065</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001299833005759865</v>
+        <v>0.001241666002897546</v>
       </c>
     </row>
     <row r="11">
@@ -3967,10 +3967,10 @@
         <v>1000</v>
       </c>
       <c r="D11" t="n">
-        <v>9129</v>
+        <v>9198</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001346124990959652</v>
+        <v>0.001256542003829964</v>
       </c>
     </row>
     <row r="12">
@@ -3984,10 +3984,10 @@
         <v>1000</v>
       </c>
       <c r="D12" t="n">
-        <v>9221</v>
+        <v>9150</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00129237498913426</v>
+        <v>0.001267833999008872</v>
       </c>
     </row>
     <row r="13">
@@ -4001,10 +4001,10 @@
         <v>1000</v>
       </c>
       <c r="D13" t="n">
-        <v>9109</v>
+        <v>9092</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00130304200865794</v>
+        <v>0.00124487500579562</v>
       </c>
     </row>
     <row r="14">
@@ -4018,10 +4018,10 @@
         <v>1000</v>
       </c>
       <c r="D14" t="n">
-        <v>9141</v>
+        <v>9062</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001244999992195517</v>
+        <v>0.001244832994416356</v>
       </c>
     </row>
     <row r="15">
@@ -4035,10 +4035,10 @@
         <v>1000</v>
       </c>
       <c r="D15" t="n">
-        <v>9125</v>
+        <v>9129</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001272458001039922</v>
+        <v>0.001273375004529953</v>
       </c>
     </row>
     <row r="16">
@@ -4052,10 +4052,10 @@
         <v>1000</v>
       </c>
       <c r="D16" t="n">
-        <v>9639</v>
+        <v>9555</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001278957992326468</v>
+        <v>0.001276708993827924</v>
       </c>
     </row>
     <row r="17">
@@ -4069,10 +4069,10 @@
         <v>1000</v>
       </c>
       <c r="D17" t="n">
-        <v>10111</v>
+        <v>10347</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001324958997429349</v>
+        <v>0.001320916999247856</v>
       </c>
     </row>
     <row r="18">
@@ -4086,10 +4086,10 @@
         <v>1000</v>
       </c>
       <c r="D18" t="n">
-        <v>10440</v>
+        <v>10304</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001325624994933605</v>
+        <v>0.001304500008700415</v>
       </c>
     </row>
     <row r="19">
@@ -4103,10 +4103,10 @@
         <v>1000</v>
       </c>
       <c r="D19" t="n">
-        <v>10353</v>
+        <v>10293</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001388667005812749</v>
+        <v>0.001316582987783477</v>
       </c>
     </row>
     <row r="20">
@@ -4120,10 +4120,10 @@
         <v>1000</v>
       </c>
       <c r="D20" t="n">
-        <v>10387</v>
+        <v>10319</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001300249990890734</v>
+        <v>0.001296749993343838</v>
       </c>
     </row>
     <row r="21">
@@ -4137,10 +4137,10 @@
         <v>1000</v>
       </c>
       <c r="D21" t="n">
-        <v>10375</v>
+        <v>10341</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001290707994485274</v>
+        <v>0.00130341699696146</v>
       </c>
     </row>
     <row r="22">
@@ -4154,10 +4154,10 @@
         <v>1000</v>
       </c>
       <c r="D22" t="n">
-        <v>10214</v>
+        <v>10243</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001282166995224543</v>
+        <v>0.001343042007647455</v>
       </c>
     </row>
     <row r="23">
@@ -4171,10 +4171,10 @@
         <v>1000</v>
       </c>
       <c r="D23" t="n">
-        <v>10333</v>
+        <v>10314</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001306582998950034</v>
+        <v>0.001325083008850925</v>
       </c>
     </row>
     <row r="24">
@@ -4188,10 +4188,10 @@
         <v>1000</v>
       </c>
       <c r="D24" t="n">
-        <v>10350</v>
+        <v>10410</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001348208010313101</v>
+        <v>0.001338040994596668</v>
       </c>
     </row>
     <row r="25">
@@ -4205,10 +4205,10 @@
         <v>1000</v>
       </c>
       <c r="D25" t="n">
-        <v>10067</v>
+        <v>10211</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001256875009858049</v>
+        <v>0.001312415988650173</v>
       </c>
     </row>
     <row r="26">
@@ -4222,10 +4222,10 @@
         <v>1000</v>
       </c>
       <c r="D26" t="n">
-        <v>10276</v>
+        <v>10251</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00127870800497476</v>
+        <v>0.001297167007578537</v>
       </c>
     </row>
     <row r="27">
@@ -4239,10 +4239,10 @@
         <v>10000</v>
       </c>
       <c r="D27" t="n">
-        <v>120447</v>
+        <v>120505</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02317262500582729</v>
+        <v>0.02324962499551475</v>
       </c>
     </row>
     <row r="28">
@@ -4256,10 +4256,10 @@
         <v>10000</v>
       </c>
       <c r="D28" t="n">
-        <v>120450</v>
+        <v>120398</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02032620800309815</v>
+        <v>0.02047041700279806</v>
       </c>
     </row>
     <row r="29">
@@ -4273,10 +4273,10 @@
         <v>10000</v>
       </c>
       <c r="D29" t="n">
-        <v>120460</v>
+        <v>120376</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01909750000049826</v>
+        <v>0.01919470800203271</v>
       </c>
     </row>
     <row r="30">
@@ -4290,10 +4290,10 @@
         <v>10000</v>
       </c>
       <c r="D30" t="n">
-        <v>120591</v>
+        <v>120485</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01892979200056288</v>
+        <v>0.01904270799423102</v>
       </c>
     </row>
     <row r="31">
@@ -4307,10 +4307,10 @@
         <v>10000</v>
       </c>
       <c r="D31" t="n">
-        <v>121639</v>
+        <v>121672</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01769608299946412</v>
+        <v>0.017734458000632</v>
       </c>
     </row>
     <row r="32">
@@ -4324,10 +4324,10 @@
         <v>10000</v>
       </c>
       <c r="D32" t="n">
-        <v>121553</v>
+        <v>121561</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01765512500423938</v>
+        <v>0.01781200000550598</v>
       </c>
     </row>
     <row r="33">
@@ -4341,10 +4341,10 @@
         <v>10000</v>
       </c>
       <c r="D33" t="n">
-        <v>121534</v>
+        <v>121490</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0176150420011254</v>
+        <v>0.0177443340071477</v>
       </c>
     </row>
     <row r="34">
@@ -4358,10 +4358,10 @@
         <v>10000</v>
       </c>
       <c r="D34" t="n">
-        <v>121527</v>
+        <v>121553</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01752562500769272</v>
+        <v>0.01767508400371298</v>
       </c>
     </row>
     <row r="35">
@@ -4375,10 +4375,10 @@
         <v>10000</v>
       </c>
       <c r="D35" t="n">
-        <v>122306</v>
+        <v>122663</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01742170799116138</v>
+        <v>0.0175610830046935</v>
       </c>
     </row>
     <row r="36">
@@ -4392,10 +4392,10 @@
         <v>10000</v>
       </c>
       <c r="D36" t="n">
-        <v>127071</v>
+        <v>127169</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01709049999772105</v>
+        <v>0.01724583299073856</v>
       </c>
     </row>
     <row r="37">
@@ -4409,10 +4409,10 @@
         <v>10000</v>
       </c>
       <c r="D37" t="n">
-        <v>127012</v>
+        <v>126935</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01710120899952017</v>
+        <v>0.01718387499568053</v>
       </c>
     </row>
     <row r="38">
@@ -4426,10 +4426,10 @@
         <v>10000</v>
       </c>
       <c r="D38" t="n">
-        <v>127047</v>
+        <v>127108</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01709774999471847</v>
+        <v>0.01719633299217094</v>
       </c>
     </row>
     <row r="39">
@@ -4443,10 +4443,10 @@
         <v>10000</v>
       </c>
       <c r="D39" t="n">
-        <v>127193</v>
+        <v>127195</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01716929199756123</v>
+        <v>0.01720474999456201</v>
       </c>
     </row>
     <row r="40">
@@ -4460,10 +4460,10 @@
         <v>10000</v>
       </c>
       <c r="D40" t="n">
-        <v>127029</v>
+        <v>126921</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01716945800581016</v>
+        <v>0.01716045899956953</v>
       </c>
     </row>
     <row r="41">
@@ -4477,10 +4477,10 @@
         <v>10000</v>
       </c>
       <c r="D41" t="n">
-        <v>127128</v>
+        <v>127137</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01711029199941549</v>
+        <v>0.01721791700401809</v>
       </c>
     </row>
     <row r="42">
@@ -4497,7 +4497,7 @@
         <v>126967</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01713791699148715</v>
+        <v>0.01736258300661575</v>
       </c>
     </row>
     <row r="43">
@@ -4511,10 +4511,10 @@
         <v>10000</v>
       </c>
       <c r="D43" t="n">
-        <v>127242</v>
+        <v>126822</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01707995800825302</v>
+        <v>0.01781091700831894</v>
       </c>
     </row>
     <row r="44">
@@ -4528,10 +4528,10 @@
         <v>10000</v>
       </c>
       <c r="D44" t="n">
-        <v>127018</v>
+        <v>127178</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01747416700527538</v>
+        <v>0.01747079199412838</v>
       </c>
     </row>
     <row r="45">
@@ -4545,10 +4545,10 @@
         <v>10000</v>
       </c>
       <c r="D45" t="n">
-        <v>134213</v>
+        <v>134076</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0179768329981016</v>
+        <v>0.01767874999495689</v>
       </c>
     </row>
     <row r="46">
@@ -4562,10 +4562,10 @@
         <v>10000</v>
       </c>
       <c r="D46" t="n">
-        <v>144217</v>
+        <v>143244</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01832579101028387</v>
+        <v>0.01821062499948312</v>
       </c>
     </row>
     <row r="47">
@@ -4579,10 +4579,10 @@
         <v>10000</v>
       </c>
       <c r="D47" t="n">
-        <v>143959</v>
+        <v>143771</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01830345801135991</v>
+        <v>0.01842574999318458</v>
       </c>
     </row>
     <row r="48">
@@ -4596,10 +4596,10 @@
         <v>10000</v>
       </c>
       <c r="D48" t="n">
-        <v>143318</v>
+        <v>143582</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01811695899232291</v>
+        <v>0.01829120799084194</v>
       </c>
     </row>
     <row r="49">
@@ -4613,10 +4613,10 @@
         <v>10000</v>
       </c>
       <c r="D49" t="n">
-        <v>143596</v>
+        <v>143617</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0183012079942273</v>
+        <v>0.01823825000610668</v>
       </c>
     </row>
     <row r="50">
@@ -4630,10 +4630,10 @@
         <v>10000</v>
       </c>
       <c r="D50" t="n">
-        <v>144114</v>
+        <v>143600</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01826949999667704</v>
+        <v>0.01824462499644142</v>
       </c>
     </row>
     <row r="51">
@@ -4647,10 +4647,10 @@
         <v>10000</v>
       </c>
       <c r="D51" t="n">
-        <v>143133</v>
+        <v>143481</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01814120801282115</v>
+        <v>0.01823204099491704</v>
       </c>
     </row>
     <row r="52">
@@ -4664,10 +4664,10 @@
         <v>100000</v>
       </c>
       <c r="D52" t="n">
-        <v>1536634</v>
+        <v>1536305</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2761329579952871</v>
+        <v>0.2774790410039714</v>
       </c>
     </row>
     <row r="53">
@@ -4681,10 +4681,10 @@
         <v>100000</v>
       </c>
       <c r="D53" t="n">
-        <v>1536563</v>
+        <v>1536358</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2546194580063457</v>
+        <v>0.253603707998991</v>
       </c>
     </row>
     <row r="54">
@@ -4698,10 +4698,10 @@
         <v>100000</v>
       </c>
       <c r="D54" t="n">
-        <v>1536526</v>
+        <v>1536416</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2316418340051314</v>
+        <v>0.2331287909910316</v>
       </c>
     </row>
     <row r="55">
@@ -4715,10 +4715,10 @@
         <v>100000</v>
       </c>
       <c r="D55" t="n">
-        <v>1536829</v>
+        <v>1536818</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2306257090094732</v>
+        <v>0.2417035830003442</v>
       </c>
     </row>
     <row r="56">
@@ -4732,10 +4732,10 @@
         <v>100000</v>
       </c>
       <c r="D56" t="n">
-        <v>1536959</v>
+        <v>1536717</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2307660420046886</v>
+        <v>0.2315059590036981</v>
       </c>
     </row>
     <row r="57">
@@ -4749,10 +4749,10 @@
         <v>100000</v>
       </c>
       <c r="D57" t="n">
-        <v>1554675</v>
+        <v>1555231</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2226732499984792</v>
+        <v>0.2222188750019995</v>
       </c>
     </row>
     <row r="58">
@@ -4766,10 +4766,10 @@
         <v>100000</v>
       </c>
       <c r="D58" t="n">
-        <v>1557893</v>
+        <v>1557726</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2191556670004502</v>
+        <v>0.2381874590064399</v>
       </c>
     </row>
     <row r="59">
@@ -4783,10 +4783,10 @@
         <v>100000</v>
       </c>
       <c r="D59" t="n">
-        <v>1557971</v>
+        <v>1558415</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2194931659905706</v>
+        <v>0.2384424170013517</v>
       </c>
     </row>
     <row r="60">
@@ -4800,10 +4800,10 @@
         <v>100000</v>
       </c>
       <c r="D60" t="n">
-        <v>1557801</v>
+        <v>1558053</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2189910410088487</v>
+        <v>0.2331728749995818</v>
       </c>
     </row>
     <row r="61">
@@ -4817,10 +4817,10 @@
         <v>100000</v>
       </c>
       <c r="D61" t="n">
-        <v>1557760</v>
+        <v>1558004</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2208272909920197</v>
+        <v>0.2335952079884009</v>
       </c>
     </row>
     <row r="62">
@@ -4834,10 +4834,10 @@
         <v>100000</v>
       </c>
       <c r="D62" t="n">
-        <v>1558368</v>
+        <v>1557520</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2204134169878671</v>
+        <v>0.2268322079908103</v>
       </c>
     </row>
     <row r="63">
@@ -4851,10 +4851,10 @@
         <v>100000</v>
       </c>
       <c r="D63" t="n">
-        <v>1619200</v>
+        <v>1619682</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2182839580054861</v>
+        <v>0.2233847919997061</v>
       </c>
     </row>
     <row r="64">
@@ -4868,10 +4868,10 @@
         <v>100000</v>
       </c>
       <c r="D64" t="n">
-        <v>1640294</v>
+        <v>1638805</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2183734169957461</v>
+        <v>0.2217829160072142</v>
       </c>
     </row>
     <row r="65">
@@ -4885,10 +4885,10 @@
         <v>100000</v>
       </c>
       <c r="D65" t="n">
-        <v>1639614</v>
+        <v>1638239</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2199059999984456</v>
+        <v>0.2290217499976279</v>
       </c>
     </row>
     <row r="66">
@@ -4902,10 +4902,10 @@
         <v>100000</v>
       </c>
       <c r="D66" t="n">
-        <v>1638921</v>
+        <v>1639617</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2187419169931673</v>
+        <v>0.2203231250023236</v>
       </c>
     </row>
     <row r="67">
@@ -4919,10 +4919,10 @@
         <v>100000</v>
       </c>
       <c r="D67" t="n">
-        <v>1640538</v>
+        <v>1640551</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2187454579980113</v>
+        <v>0.220438042000751</v>
       </c>
     </row>
     <row r="68">
@@ -4936,10 +4936,10 @@
         <v>100000</v>
       </c>
       <c r="D68" t="n">
-        <v>1640031</v>
+        <v>1639747</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2197007079957984</v>
+        <v>0.2200685420102673</v>
       </c>
     </row>
     <row r="69">
@@ -4953,10 +4953,10 @@
         <v>100000</v>
       </c>
       <c r="D69" t="n">
-        <v>1638830</v>
+        <v>1638962</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2185643330012681</v>
+        <v>0.2199568749929313</v>
       </c>
     </row>
     <row r="70">
@@ -4970,10 +4970,10 @@
         <v>100000</v>
       </c>
       <c r="D70" t="n">
-        <v>1640609</v>
+        <v>1637624</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2204110419988865</v>
+        <v>0.2243416249984875</v>
       </c>
     </row>
     <row r="71">
@@ -4987,10 +4987,10 @@
         <v>100000</v>
       </c>
       <c r="D71" t="n">
-        <v>1640342</v>
+        <v>1639104</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2201992920017801</v>
+        <v>0.2290885419934057</v>
       </c>
     </row>
     <row r="72">
@@ -5004,10 +5004,10 @@
         <v>100000</v>
       </c>
       <c r="D72" t="n">
-        <v>1640753</v>
+        <v>1638940</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2187561669998104</v>
+        <v>0.2224249580031028</v>
       </c>
     </row>
     <row r="73">
@@ -5021,10 +5021,10 @@
         <v>100000</v>
       </c>
       <c r="D73" t="n">
-        <v>1638790</v>
+        <v>1638032</v>
       </c>
       <c r="E73" t="n">
-        <v>0.21900804201141</v>
+        <v>0.231128291998175</v>
       </c>
     </row>
     <row r="74">
@@ -5038,10 +5038,10 @@
         <v>100000</v>
       </c>
       <c r="D74" t="n">
-        <v>1638385</v>
+        <v>1639399</v>
       </c>
       <c r="E74" t="n">
-        <v>0.218498708010884</v>
+        <v>0.2249955419974867</v>
       </c>
     </row>
     <row r="75">
@@ -5055,10 +5055,10 @@
         <v>100000</v>
       </c>
       <c r="D75" t="n">
-        <v>1764763</v>
+        <v>1764183</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2284706250065938</v>
+        <v>0.2398169590014732</v>
       </c>
     </row>
     <row r="76">
@@ -5072,10 +5072,10 @@
         <v>100000</v>
       </c>
       <c r="D76" t="n">
-        <v>1863233</v>
+        <v>1861896</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2360150409949711</v>
+        <v>0.2492184160073521</v>
       </c>
     </row>
   </sheetData>
@@ -5140,16 +5140,16 @@
         <v>10000000</v>
       </c>
       <c r="D2" t="n">
-        <v>221106493</v>
+        <v>221104667</v>
       </c>
       <c r="E2" t="n">
-        <v>33.98214645800181</v>
+        <v>34.22633025000687</v>
       </c>
       <c r="F2" t="n">
-        <v>220099412</v>
+        <v>220098347</v>
       </c>
       <c r="G2" t="n">
-        <v>36.57084758300334</v>
+        <v>36.73795920801058</v>
       </c>
     </row>
   </sheetData>
